--- a/Phòng kỹ thuật/Bluesign/KIỂM ĐỊNH BS 2022/9. BẢNG THỐNG KÊ KIỂM SOÁT DANH MỤC CÔNG VIỆC BLUESIGN YÊU CẦU THỰC HIỆN.xlsx
+++ b/Phòng kỹ thuật/Bluesign/KIỂM ĐỊNH BS 2022/9. BẢNG THỐNG KÊ KIỂM SOÁT DANH MỤC CÔNG VIỆC BLUESIGN YÊU CẦU THỰC HIỆN.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kimhuong\Phòng kỹ thuật\Bluesign\KIỂM ĐỊNH BS 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6694A89E-9627-4031-A29E-60E652C09889}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EECBDC-E81E-4B9D-B181-B071ACFB577C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1500" yWindow="1365" windowWidth="20130" windowHeight="11340" xr2:uid="{59C62AA5-A382-4A8F-B91D-C51B7E9B043C}"/>
+    <workbookView xWindow="1500" yWindow="1365" windowWidth="20130" windowHeight="11340" xr2:uid="{59C62AA5-A382-4A8F-B91D-C51B7E9B043C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>BẢNG THỐNG KÊ DANH MỤC CÔNG VIỆC BLUESIGN YÊU CẦU THỰC HIỆN</t>
   </si>
@@ -535,9 +535,6 @@
   <si>
     <t>Biểu mẫu đánh giá nhà cung cấp được sửa đổi và điểm 1,4,8, 16-19 liên quan đến khả năng PS của nhà cung cấp.
 Để kết thúc NC này, vui lòng cung cấp 5 ví dụ đánh giá nhà cung cấp theo mẫu đánh giá nhà cung cấp mới."</t>
-  </si>
-  <si>
-    <t>làm GHS GỬI CHÓT</t>
   </si>
 </sst>
 </file>
@@ -599,7 +596,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,14 +615,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -648,11 +639,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -660,6 +677,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -696,6 +716,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,7 +739,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -723,38 +761,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -762,7 +770,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6C6E77-C542-4059-8421-ABC8917F8735}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I127" sqref="I127"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1092,444 +1103,417 @@
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="7" width="23.21875" customWidth="1"/>
     <col min="9" max="9" width="66.44140625" customWidth="1"/>
-    <col min="10" max="10" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="5"/>
+      <c r="I4" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="26" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
+    <row r="5" spans="1:9" s="33" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="30" t="s">
+      <c r="G5" s="23"/>
+      <c r="I5" s="33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="27" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+    <row r="6" spans="1:9" s="34" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32" t="s">
+      <c r="G6" s="23"/>
+      <c r="I6" s="35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="23" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+    <row r="7" spans="1:9" s="26" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="33" t="s">
+      <c r="G7" s="24"/>
+      <c r="I7" s="29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="23" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+    <row r="8" spans="1:9" s="26" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
         <v>5</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="34" t="s">
+      <c r="G8" s="24"/>
+      <c r="I8" s="27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="23" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+    <row r="9" spans="1:9" s="26" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
         <v>6</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="34" t="s">
+      <c r="G9" s="24"/>
+      <c r="I9" s="27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="23" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+    <row r="10" spans="1:9" s="26" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="34" t="s">
+      <c r="G10" s="24"/>
+      <c r="I10" s="27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="23" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+    <row r="11" spans="1:9" s="26" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
         <v>8</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="35" t="s">
+      <c r="G11" s="24"/>
+      <c r="I11" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="36" t="s">
+      <c r="G12" s="4"/>
+      <c r="I12" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="16" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+    <row r="13" spans="1:9" s="17" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" s="16" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" s="17" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="29" t="s">
+      <c r="G15" s="4"/>
+      <c r="I15" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+    <row r="16" spans="1:9" s="26" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
         <v>13</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="37" t="s">
+      <c r="G16" s="24"/>
+      <c r="I16" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+    <row r="17" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>14</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="36" t="s">
+      <c r="G17" s="4"/>
+      <c r="I17" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+    <row r="18" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>15</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="4"/>
+      <c r="I18" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+    <row r="19" spans="1:9" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
         <v>16</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="38" t="s">
+      <c r="G19" s="24"/>
+      <c r="I19" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+    </row>
+    <row r="20" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="36" t="s">
+      <c r="G20" s="4"/>
+      <c r="I20" s="18" t="s">
         <v>49</v>
       </c>
     </row>
